--- a/BackTest/2020-01-22 BackTest SOC.xlsx
+++ b/BackTest/2020-01-22 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6334230.052738395</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5395673.104853045</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5472744.972653045</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3919104.70317847</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3519470.352654406</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3548369.641554406</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3616101.898354406</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4061052.637954406</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3995526.193254407</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4102119.798954406</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>4059084.351554406</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>4151639.323454406</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>4252584.253154406</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>4252584.253154406</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>4252584.253154406</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>4256682.613810144</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>4256682.613810144</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>4256682.613810144</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>4149397.595810144</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>3872962.381710144</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>3879026.708110144</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>4575491.3372763</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4490466.102275028</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>7144683.278678013</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>6987408.842980964</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>6850695.868380964</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>11365360.6694031</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>11187380.1522031</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>11861005.3366031</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>11685682.33615125</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>11203311.38795125</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>11256044.71205124</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>11619723.35211564</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>12227539.28815125</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>12404210.38653876</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>12175314.96633997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>11986107.23073997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>11693962.14393997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>11763576.96683997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>11798071.09553996</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>11746030.26223996</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>11894851.79206263</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>11833439.57396263</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>11861759.96326263</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>11878158.29106263</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>11789375.03966263</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>11898459.47836263</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>11924258.39236263</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>11601070.10506263</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>11045763.36556263</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>10767192.01896263</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>10767192.01896263</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>10876086.48696263</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>10713397.48876263</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>10510730.26306263</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>10260748.43166263</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>10140744.96546263</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>10250460.60126263</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>10313659.97646263</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>10747741.25243085</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>10723628.70373086</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>10771690.47003086</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>10719013.16023085</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>10759731.81313085</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>10731976.49471018</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>11048302.24671018</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>11040019.84231018</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>10929540.11316968</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>10918391.19456968</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>10911758.55596968</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>10911758.55596968</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>10934421.26496968</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>10849249.13576968</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>10838470.08876968</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>10851887.18006968</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>10905052.22596968</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>10886973.65936968</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>10797497.28236968</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>11042168.51416968</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>10666506.78456968</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>11162416.80806968</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>11059417.55726968</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>10327306.60205872</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>10327306.60205872</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>10129848.89235872</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>10263465.41035872</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>10205295.37605872</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>10023147.23195872</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>9556203.059158716</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>9784004.536558716</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>10320012.52395872</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>10320012.52395872</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>10285629.92955872</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>10170183.79785872</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>10230036.89365872</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>10074252.02625872</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>9466531.671558715</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>9403053.164258715</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>9561924.802497715</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>9511583.384897714</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>9645707.503758715</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>9676509.553758716</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>9676509.553758716</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>10008449.34933693</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>10332936.54203693</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>10499720.41193693</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>10386355.19203693</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>10434781.39603693</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>10417531.08643693</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>10402153.67533693</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>10824180.76623693</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>10980739.14743693</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>11130908.0999759</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>11343835.91203693</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>11018947.23254324</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>11208336.48134324</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>10987095.97414324</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>10667436.49264324</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>10577402.83534324</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>10675625.19014324</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>10712657.37794324</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>10643696.96714324</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>10534246.21054324</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>10815765.47054324</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>10988554.10794324</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>11021060.90164324</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>10843914.88674324</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>11053118.97724324</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>10592756.85394324</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>10058512.14664324</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>9877558.735043243</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>9846771.265143242</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>9885758.242543241</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>9748143.42054324</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>9571182.566043241</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>9455887.537343241</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>9332123.217443241</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>9332123.217443241</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>9245990.426543241</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>8749944.163443241</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>8792263.371743241</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>8773155.844943242</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>9030143.436243242</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>9045427.752843242</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>8802349.621743241</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>8694484.272643242</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>8610340.101443242</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>8688289.975443242</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>8618670.594343241</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>8646210.930143241</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>8628105.330243241</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>8732707.32094324</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>8794782.021943239</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>8837494.827243239</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>8934002.984343238</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>8097498.278243238</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>8097498.278243238</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>8067429.34698371</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>8055218.997483711</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>8062238.370583711</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>8526136.966218345</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>8434751.595218346</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>8586374.699218344</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>8586374.699218344</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>8789461.622918345</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>8743658.301718345</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>8733242.484218344</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>8820260.482318344</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>8797364.008618344</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>8517324.538118344</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>8477215.862518344</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>8431275.481118344</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>8469749.081318345</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>8461382.218318345</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>8540189.291218344</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>8517138.488218345</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>8530728.055018345</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>8578298.896518344</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>9099917.669118345</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>9387482.301018344</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>9237116.681018345</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>9284389.530218344</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>9234361.314318344</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>5797009.803118344</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>5846885.587618344</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>6721666.785718344</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>7315219.347618344</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>7047966.009018346</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>7094320.480218345</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>7069453.797718345</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>7044145.156718345</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>7323798.560142828</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>7312430.379443501</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>7247814.901943502</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>7267714.102043502</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>7280687.488543502</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>7255448.746743502</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>7353886.760343502</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>7299657.617243502</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>7272511.025243502</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>7288027.953343502</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>7251538.941443502</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>7316956.282243502</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>7283029.077943502</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>7665126.030243502</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>7658273.518243502</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>6508205.462119523</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>6451792.892919524</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>6488904.712019524</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>6498616.778119524</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>6148471.712919524</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>6197915.211019524</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>6500363.855594715</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>6271158.408194715</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>6254342.976394715</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>6270236.481194715</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -39853,11 +39853,17 @@
         <v>3392309.618488419</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39886,11 +39892,17 @@
         <v>3377147.187488419</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39919,11 +39931,17 @@
         <v>3419685.163188419</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>11.03</v>
+      </c>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -39952,11 +39970,17 @@
         <v>3196827.557688419</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -39985,11 +40009,17 @@
         <v>3094167.759888419</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>11.05</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40018,11 +40048,17 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40051,11 +40087,17 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +40126,17 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40117,11 +40165,17 @@
         <v>3198914.362458708</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40150,7 +40204,7 @@
         <v>3198914.362458708</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1205" t="n">
         <v>11.05</v>
@@ -40158,7 +40212,7 @@
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1205" t="n">
@@ -40189,7 +40243,7 @@
         <v>3221433.018558708</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1206" t="n">
         <v>11.05</v>
@@ -40228,9 +40282,11 @@
         <v>3159254.172058708</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
@@ -40265,9 +40321,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40302,9 +40360,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40339,9 +40399,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40376,9 +40438,11 @@
         <v>3218995.287658708</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40413,9 +40477,11 @@
         <v>3325215.351907133</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -40450,9 +40516,11 @@
         <v>3455019.780307133</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -40487,9 +40555,11 @@
         <v>3423679.948607133</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -40524,9 +40594,11 @@
         <v>3423679.948607133</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
@@ -40561,9 +40633,11 @@
         <v>3460054.116807133</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -40598,9 +40672,11 @@
         <v>3491490.485607133</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -40635,9 +40711,11 @@
         <v>3522415.404907133</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -40672,9 +40750,11 @@
         <v>3522415.404907133</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>11.21</v>
+      </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -40783,9 +40863,11 @@
         <v>3348947.338807133</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
@@ -40820,9 +40902,11 @@
         <v>3392625.316407133</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -40857,9 +40941,11 @@
         <v>3465129.409307133</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
@@ -40894,9 +40980,11 @@
         <v>3448049.823807133</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
@@ -40931,9 +41019,11 @@
         <v>3461896.319707133</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
@@ -40968,9 +41058,11 @@
         <v>3427489.994407133</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41042,9 +41134,11 @@
         <v>3563170.666707133</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
@@ -41079,9 +41173,11 @@
         <v>3557911.470907133</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41190,9 +41286,11 @@
         <v>3465502.968007133</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>11.12</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41227,9 +41325,11 @@
         <v>3526883.430007133</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41264,9 +41364,11 @@
         <v>3564381.757607133</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41301,9 +41403,11 @@
         <v>3564381.757607133</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41375,9 +41479,11 @@
         <v>3415127.834407133</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>11.1</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41412,9 +41518,11 @@
         <v>3453248.038807133</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41449,9 +41557,11 @@
         <v>3516943.855707133</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41486,9 +41596,11 @@
         <v>3533574.986307133</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41523,9 +41635,11 @@
         <v>3546442.352007133</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>11.12</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41560,9 +41674,11 @@
         <v>3529198.642907133</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41597,9 +41713,11 @@
         <v>3511857.714107133</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41634,9 +41752,11 @@
         <v>3619419.288607133</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41671,7 +41791,7 @@
         <v>3375371.530607133</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>11.09</v>
@@ -41710,9 +41830,11 @@
         <v>3166562.424207133</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41747,7 +41869,7 @@
         <v>3166562.424207133</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1248" t="n">
         <v>11.03</v>
@@ -41786,7 +41908,7 @@
         <v>3098104.603307133</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1249" t="n">
         <v>11.03</v>
@@ -41825,7 +41947,7 @@
         <v>3262812.083507133</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>11.01</v>
@@ -41864,7 +41986,7 @@
         <v>3213733.131707133</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1251" t="n">
         <v>11.08</v>
@@ -41903,7 +42025,7 @@
         <v>3213733.131707133</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>11.02</v>
@@ -41942,7 +42064,7 @@
         <v>3213733.131707133</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>11.02</v>
@@ -41981,7 +42103,7 @@
         <v>3318428.132107133</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>11.02</v>
@@ -42020,7 +42142,7 @@
         <v>3318428.132107133</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>11.05</v>
@@ -42059,7 +42181,7 @@
         <v>3346083.167507133</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>11.05</v>
@@ -42098,7 +42220,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>11.06</v>
@@ -42137,7 +42259,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>11.08</v>
@@ -42176,7 +42298,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>11.08</v>
@@ -42215,7 +42337,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>11.08</v>
@@ -42254,7 +42376,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1261" t="n">
         <v>11.08</v>
@@ -42293,7 +42415,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1262" t="n">
         <v>11.08</v>
@@ -42332,7 +42454,7 @@
         <v>3363590.219807133</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1263" t="n">
         <v>11.08</v>
@@ -42371,7 +42493,7 @@
         <v>3377118.441007133</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>11.08</v>
@@ -42410,7 +42532,7 @@
         <v>3465990.482207133</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>11.1</v>
@@ -42449,7 +42571,7 @@
         <v>3524000.177607133</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>11.13</v>
@@ -42488,7 +42610,7 @@
         <v>3524000.177607133</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>11.16</v>
@@ -42527,7 +42649,7 @@
         <v>3467588.713007133</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>11.16</v>
@@ -42566,7 +42688,7 @@
         <v>3528106.473007133</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>11.14</v>
@@ -42605,7 +42727,7 @@
         <v>3414106.021707133</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>11.2</v>
@@ -42644,9 +42766,11 @@
         <v>3375897.172407133</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42681,9 +42805,11 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
@@ -42718,9 +42844,11 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -42755,9 +42883,11 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
@@ -42792,7 +42922,7 @@
         <v>3442961.448907133</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>11.16</v>
@@ -42831,9 +42961,11 @@
         <v>3418605.915307133</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -42868,9 +43000,11 @@
         <v>3393284.438507133</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>11.15</v>
+      </c>
       <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
@@ -42905,9 +43039,11 @@
         <v>3409563.351407133</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>11.14</v>
+      </c>
       <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
@@ -42942,9 +43078,11 @@
         <v>3694453.172307133</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>11.16</v>
+      </c>
       <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
@@ -42979,9 +43117,11 @@
         <v>3753473.398607133</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43016,9 +43156,11 @@
         <v>3700785.503307133</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43053,9 +43195,11 @@
         <v>3685212.836507134</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43090,9 +43234,11 @@
         <v>3685212.836507134</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>11.22</v>
+      </c>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43238,9 +43384,11 @@
         <v>4252675.573907133</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>11.28</v>
+      </c>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43423,9 +43571,11 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>11.23</v>
+      </c>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43460,9 +43610,11 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>11.23</v>
+      </c>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43497,9 +43649,11 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>11.23</v>
+      </c>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43697,6 +43851,6 @@
       <c r="M1299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest SOC.xlsx
+++ b/BackTest/2020-01-22 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>4951034.196653046</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4789913.465103894</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3743012.505850979</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3804045.200350979</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3793626.868543826</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3428153.462843826</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3429289.432743826</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3482668.767854406</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3433800.811654406</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3404062.359254406</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3422914.307654406</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3221677.462254406</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3590146.180854407</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3600639.741454407</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3634081.506354406</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3519470.352654406</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3548369.641554406</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3616101.898354406</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4061052.637954406</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3995526.193254407</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4092356.520654406</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>3866153.824510144</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>3885134.178910144</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>3817441.290110144</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4547102.721477575</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4540320.730877575</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>4532807.546877574</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>4541431.135277574</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>4534063.922577574</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>4527819.912677574</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>4611358.284175027</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>4475165.626175027</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>4547048.405375027</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>4511585.135375028</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4490466.102275028</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>4497956.854575028</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>4482423.393675027</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>4463597.412175027</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>4456271.979375027</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4464042.051475028</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>4456107.572675028</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>4468090.207975028</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>4458562.677775028</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>4653360.582575028</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>4647056.995875028</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4639375.034975028</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>4639548.072075028</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>4581343.380175028</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4634176.636875028</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4644214.637075027</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>4627985.921092947</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>4663691.347592947</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>4632332.243992947</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>4720892.618092947</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>4763241.167099324</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>4679720.104299324</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>4806445.243599324</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>4779652.329899323</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>5080244.616599323</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>4669554.977399324</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>4552224.571599324</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>4577616.874599325</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>4552679.276799325</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>4536309.230799325</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>4574836.713099325</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>4596159.638499325</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>4492669.280899325</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>4591114.937699325</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>4671552.609099326</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>4361386.507699326</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>4409699.570299326</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>4369969.961899325</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>4413790.742299325</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>4675328.232299325</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>4864084.504799325</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>4734560.363699325</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>4759058.193999325</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>5303952.888299325</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>5919846.89138364</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>6236226.337399324</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>6642927.324099325</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>6459072.312304243</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>7144683.278678013</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>6987408.842980964</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>6850695.868380964</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>6991100.857480964</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>7110697.092380963</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>7199210.511480963</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>7416608.309980962</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>6314201.090629219</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>6702451.672984915</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>6598994.778141739</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>7550077.876277477</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>7757693.599777477</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>9690199.774377476</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>11365360.6694031</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>11256044.71205124</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>11619723.35211564</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>12227539.28815125</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>12404210.38653876</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>12175314.96633997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>11986107.23073997</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>11693962.14393997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>11763576.96683997</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>11798071.09553996</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>11746030.26223996</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>11894851.79206263</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>11833439.57396263</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>11861759.96326263</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>11878158.29106263</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>11789375.03966263</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>11898459.47836263</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>11924258.39236263</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>11601070.10506263</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>11045763.36556263</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>10767192.01896263</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>10767192.01896263</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>10876086.48696263</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>10713397.48876263</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>10510730.26306263</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>10260748.43166263</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>10140744.96546263</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>10250460.60126263</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>10313659.97646263</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>10297639.63003085</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>10747741.25243085</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>10723628.70373086</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>10771690.47003086</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>10719013.16023085</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>10759731.81313085</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>10731976.49471018</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>11048302.24671018</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>11040019.84231018</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>10929540.11316968</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>10918391.19456968</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>10911758.55596968</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>10911758.55596968</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>10934421.26496968</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>10849249.13576968</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>10838470.08876968</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>10851887.18006968</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>10905052.22596968</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>10886973.65936968</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>10797497.28236968</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>11042168.51416968</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>10666506.78456968</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>11162416.80806968</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>11059417.55726968</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>10327306.60205872</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>10327306.60205872</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>10129848.89235872</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>10263465.41035872</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>10205295.37605872</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>10023147.23195872</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>9556203.059158716</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>9784004.536558716</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>10320012.52395872</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>10320012.52395872</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>10285629.92955872</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>10170183.79785872</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>10230036.89365872</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>10074252.02625872</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>9466531.671558715</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>9403053.164258715</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>9561924.802497715</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>9511583.384897714</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>9645707.503758715</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>9676509.553758716</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>9676509.553758716</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>10008449.34933693</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>10332936.54203693</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>10499720.41193693</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>10386355.19203693</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>10434781.39603693</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>10417531.08643693</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>11343835.91203693</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>11018947.23254324</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>11208336.48134324</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>10987095.97414324</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>10667436.49264324</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>10592756.85394324</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>10058512.14664324</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>9877558.735043243</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>9332123.217443241</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>9332123.217443241</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>9245990.426543241</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>8749944.163443241</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>8792263.371743241</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>8773155.844943242</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>9030143.436243242</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>9045427.752843242</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>8802349.621743241</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>8694484.272643242</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>8610340.101443242</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>8688289.975443242</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>8618670.594343241</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>8646210.930143241</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>8628105.330243241</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>8732707.32094324</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>8794782.021943239</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>8837494.827243239</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>8934002.984343238</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>8097498.278243238</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>8097498.278243238</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>8067429.34698371</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>8055218.997483711</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>8062238.370583711</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>8373731.905818345</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>8789461.622918345</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>8743658.301718345</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>8733242.484218344</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>8820260.482318344</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>8797364.008618344</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>8517324.538118344</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>8477215.862518344</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>8431275.481118344</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>8550952.208218344</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>8662519.206218343</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>8530768.036118343</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>8552553.162018344</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>8567953.241818344</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>8493612.363018345</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>8469749.081318345</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>8461382.218318345</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>8540189.291218344</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>8517138.488218345</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>8530728.055018345</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>8578298.896518344</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>9387482.301018344</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>9237116.681018345</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>9284389.530218344</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>5859482.300218345</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>5836977.748618345</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>5822208.292118344</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>6216419.185318344</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>6170566.060318344</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>6159700.831518345</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>6044802.141518344</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>6158281.226218345</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>6721666.785718344</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>7329907.936818345</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>7460934.724018345</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>7464680.877718344</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>7494578.226518344</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>7563219.118218344</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>7538771.915418344</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>7389915.630318345</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>7369471.730018345</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>7473410.135818345</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>7044589.617518346</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>6986657.566218346</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>6980939.390218346</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>6898327.991818346</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>7304708.621642828</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>7329608.400842829</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>7357619.815542828</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>7343859.883142828</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>7326943.956842828</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>7323798.560142828</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>7312430.379443501</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>7301106.478143501</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>7358769.672243501</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>7317677.191443501</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>7279687.552443501</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>7260850.854843501</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>7246478.069243502</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>7247814.901943502</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>7267714.102043502</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>7280687.488543502</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>7273538.498343502</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>6425316.929519524</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>6399914.654619524</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>6271717.148619524</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>6148471.712919524</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>6234227.233119524</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>6213331.522219524</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>6258195.479519524</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>6262905.861319523</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>6542215.940757119</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>6500363.855594715</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>6271158.408194715</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>6254342.976394715</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -39853,17 +39853,11 @@
         <v>3392309.618488419</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>11.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39892,17 +39886,11 @@
         <v>3377147.187488419</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39931,17 +39919,11 @@
         <v>3419685.163188419</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>11.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -39970,17 +39952,11 @@
         <v>3196827.557688419</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40009,17 +39985,11 @@
         <v>3094167.759888419</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>11.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40048,17 +40018,11 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40087,17 +40051,11 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40126,17 +40084,11 @@
         <v>3124499.011688419</v>
       </c>
       <c r="H1203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40165,17 +40117,11 @@
         <v>3198914.362458708</v>
       </c>
       <c r="H1204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40204,17 +40150,11 @@
         <v>3198914.362458708</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>11.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40243,17 +40183,11 @@
         <v>3221433.018558708</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>11.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40282,17 +40216,11 @@
         <v>3159254.172058708</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40321,17 +40249,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>11.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40360,17 +40282,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40399,17 +40315,11 @@
         <v>3172096.993258708</v>
       </c>
       <c r="H1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40438,17 +40348,11 @@
         <v>3218995.287658708</v>
       </c>
       <c r="H1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40477,17 +40381,11 @@
         <v>3325215.351907133</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>11.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40516,17 +40414,11 @@
         <v>3455019.780307133</v>
       </c>
       <c r="H1213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40555,17 +40447,11 @@
         <v>3423679.948607133</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40594,17 +40480,11 @@
         <v>3423679.948607133</v>
       </c>
       <c r="H1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40633,17 +40513,11 @@
         <v>3460054.116807133</v>
       </c>
       <c r="H1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>11.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40672,17 +40546,11 @@
         <v>3491490.485607133</v>
       </c>
       <c r="H1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40711,17 +40579,11 @@
         <v>3522415.404907133</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40750,17 +40612,11 @@
         <v>3522415.404907133</v>
       </c>
       <c r="H1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>11.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40793,11 +40649,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40830,11 +40682,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40863,17 +40711,11 @@
         <v>3348947.338807133</v>
       </c>
       <c r="H1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40902,17 +40744,11 @@
         <v>3392625.316407133</v>
       </c>
       <c r="H1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -40941,17 +40777,11 @@
         <v>3465129.409307133</v>
       </c>
       <c r="H1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -40980,17 +40810,11 @@
         <v>3448049.823807133</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41019,17 +40843,11 @@
         <v>3461896.319707133</v>
       </c>
       <c r="H1226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41058,17 +40876,11 @@
         <v>3427489.994407133</v>
       </c>
       <c r="H1227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41101,11 +40913,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41134,17 +40942,11 @@
         <v>3563170.666707133</v>
       </c>
       <c r="H1229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41173,17 +40975,11 @@
         <v>3557911.470907133</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41216,11 +41012,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41253,11 +41045,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41286,17 +41074,11 @@
         <v>3465502.968007133</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>11.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41325,17 +41107,11 @@
         <v>3526883.430007133</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>11.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41364,17 +41140,11 @@
         <v>3564381.757607133</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>11.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41403,17 +41173,11 @@
         <v>3564381.757607133</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41446,11 +41210,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41479,17 +41239,11 @@
         <v>3415127.834407133</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41526,7 +41280,7 @@
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1239" t="n">
@@ -42766,11 +42520,9 @@
         <v>3375897.172407133</v>
       </c>
       <c r="H1271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>11.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42844,11 +42596,9 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>11.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43117,11 +42867,9 @@
         <v>3753473.398607133</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43156,11 +42904,9 @@
         <v>3700785.503307133</v>
       </c>
       <c r="H1281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43195,11 +42941,9 @@
         <v>3685212.836507134</v>
       </c>
       <c r="H1282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1282" t="n">
-        <v>11.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43234,11 +42978,9 @@
         <v>3685212.836507134</v>
       </c>
       <c r="H1283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>11.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43384,11 +43126,9 @@
         <v>4252675.573907133</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>11.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43571,11 +43311,9 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>11.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
@@ -43610,11 +43348,9 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>11.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43649,11 +43385,9 @@
         <v>4100580.321707133</v>
       </c>
       <c r="H1294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>11.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43851,6 +43585,6 @@
       <c r="M1299" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest SOC.xlsx
+++ b/BackTest/2020-01-22 BackTest SOC.xlsx
@@ -748,7 +748,7 @@
         <v>4951034.196653046</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>4789913.465103894</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3743012.505850979</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3804045.200350979</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3793626.868543826</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3769264.957643826</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3428153.462843826</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3444747.185543826</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3429289.432743826</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3482668.767854406</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>3433800.811654406</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>3404062.359254406</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>3422914.307654406</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>3221677.462254406</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3590146.180854407</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3600639.741454407</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3634081.506354406</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3519470.352654406</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>3548369.641554406</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3616101.898354406</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4061052.637954406</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3995526.193254407</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4092356.520654406</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>3781171.418210144</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>3866153.824510144</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>3885134.178910144</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>3817441.290110144</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>4547102.721477575</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>4540320.730877575</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>4532807.546877574</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>4541431.135277574</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>4534063.922577574</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>4527819.912677574</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>4611358.284175027</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>4475165.626175027</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>4547048.405375027</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>4531872.418375027</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>4511585.135375028</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>4490466.102275028</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>4497956.854575028</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>4482423.393675027</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>4457705.677275027</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>4463597.412175027</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>4456271.979375027</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>4464042.051475028</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>4456107.572675028</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>4468090.207975028</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>4458562.677775028</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>4653360.582575028</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>4647056.995875028</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4639375.034975028</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4626652.984575028</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>4639548.072075028</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>4581343.380175028</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4634176.636875028</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4644214.637075027</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>4663159.671892947</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>4627985.921092947</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>4663691.347592947</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>4632332.243992947</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>4720892.618092947</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>4763241.167099324</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>4679720.104299324</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>4806445.243599324</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>4779652.329899323</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>5080244.616599323</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4741025.886599323</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>4872826.949399323</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>4752926.115799324</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>4669554.977399324</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>4552224.571599324</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>4577616.874599325</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>4552679.276799325</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>4536309.230799325</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>4574836.713099325</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>4596159.638499325</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>4492669.280899325</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>4514291.935499325</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>4591114.937699325</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>4671552.609099326</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>4361386.507699326</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>4376098.531099326</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>4409699.570299326</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>4369969.961899325</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>4413790.742299325</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>4675328.232299325</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>4864084.504799325</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>4734560.363699325</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>4759058.193999325</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>5303952.888299325</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>5919846.89138364</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>6236226.337399324</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>6642927.324099325</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>6459072.312304243</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>7144683.278678013</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>6987408.842980964</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>6850695.868380964</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>7054549.000580964</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>6991100.857480964</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>7110697.092380963</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>7199210.511480963</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>7416608.309980962</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>6314201.090629219</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>6702451.672984915</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>6598994.778141739</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>7550077.876277477</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>7757693.599777477</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>9690199.774377476</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>11365360.6694031</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>11187380.1522031</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>11861005.3366031</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>11586588.29395003</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>11685682.33615125</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>11214706.99515125</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>11203311.38795125</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>11190658.08015124</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>11256044.71205124</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>11619723.35211564</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>12227539.28815125</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>12404210.38653876</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>12322494.32853997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>12175314.96633997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>11986107.23073997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>11693962.14393997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>11894851.79206263</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>11861759.96326263</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>11878158.29106263</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>11789375.03966263</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>11601070.10506263</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>11343835.91203693</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>11018947.23254324</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>11208336.48134324</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>10987095.97414324</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>10667436.49264324</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>10577402.83534324</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>10675625.19014324</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>10712657.37794324</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>10643696.96714324</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>10534246.21054324</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>10859308.19674324</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>10815765.47054324</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>10988554.10794324</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>11021060.90164324</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>10843914.88674324</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>11066958.92644324</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>11053118.97724324</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>9846771.265143242</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>9885758.242543241</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>9748143.42054324</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>9571182.566043241</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>9455887.537343241</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>8667182.713143241</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>8561015.447618345</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>8373731.905818345</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>8789461.622918345</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>8743658.301718345</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>8733242.484218344</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>8820260.482318344</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>8797364.008618344</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>8517324.538118344</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>8477215.862518344</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>8431275.481118344</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>8550952.208218344</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>8662519.206218343</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>8530768.036118343</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>8552553.162018344</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>8567953.241818344</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>8493612.363018345</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>8469749.081318345</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>8461382.218318345</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>8540189.291218344</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>8517138.488218345</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>8530728.055018345</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>8578298.896518344</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>9431016.931518344</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>9387482.301018344</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>9237116.681018345</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>9284389.530218344</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>9234361.314318344</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>5797009.803118344</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>5846885.587618344</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>5859482.300218345</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>5836977.748618345</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>5822208.292118344</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>6216419.185318344</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>6170566.060318344</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>6159700.831518345</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>6044802.141518344</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>6158281.226218345</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>7329907.936818345</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>7460934.724018345</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>7464680.877718344</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>7494578.226518344</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>7563219.118218344</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>7538771.915418344</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>7435707.975518344</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>7315219.347618344</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>7389915.630318345</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>7369471.730018345</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>7473410.135818345</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>7390267.294718345</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>7044589.617518346</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>6963372.974718346</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>6986657.566218346</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>6980939.390218346</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>6942011.287118346</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>6898327.991818346</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>7304708.621642828</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>7358801.404842828</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>7329608.400842829</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>7357619.815542828</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>7343859.883142828</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>7326943.956842828</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>7311450.585042828</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>7323798.560142828</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>7312430.379443501</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>7301106.478143501</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>7367820.471943501</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>7358769.672243501</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>7317677.191443501</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>7268821.179443501</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>7279687.552443501</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>7260850.854843501</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>7266369.667643501</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>7246478.069243502</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>7263901.455843502</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>7247814.901943502</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>7267714.102043502</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>7280687.488543502</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>7273538.498343502</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>6425316.929519524</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>6399914.654619524</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>6271717.148619524</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>6148471.712919524</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>6173659.070219524</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>6234227.233119524</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>6213331.522219524</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>6258195.479519524</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>6262905.861319523</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>6542215.940757119</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>6505754.854294715</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>6500363.855594715</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>6271158.408194715</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>6254342.976394715</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -41272,407 +41272,353 @@
         <v>3453248.038807133</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
+      <c r="L1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="E1240" t="n">
         <v>11.07</v>
       </c>
-      <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
+      <c r="F1240" t="n">
+        <v>63695.8169</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>3516943.855707133</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
+      <c r="L1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>16631.1306</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>3533574.986307133</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
+      <c r="L1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>12867.3657</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>3546442.352007133</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
+      <c r="L1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>17243.7091</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>3529198.642907133</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
+      <c r="L1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>17340.9288</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>3511857.714107133</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
+      <c r="L1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>107561.5745</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>3619419.288607133</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
+      <c r="L1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>244047.758</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>3375371.530607133</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
+      <c r="L1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>208809.1064</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>3166562.424207133</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
+      <c r="L1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>207290.8516</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>3166562.424207133</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K1248" t="inlineStr"/>
+      <c r="L1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>68457.82090000001</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>3098104.603307133</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="K1249" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" s="1" t="n">
-        <v>1238</v>
-      </c>
-      <c r="B1240" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="C1240" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D1240" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="E1240" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="F1240" t="n">
-        <v>63695.8169</v>
-      </c>
-      <c r="G1240" t="n">
-        <v>3516943.855707133</v>
-      </c>
-      <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" s="1" t="n">
-        <v>1239</v>
-      </c>
-      <c r="B1241" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C1241" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="D1241" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="E1241" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="F1241" t="n">
-        <v>16631.1306</v>
-      </c>
-      <c r="G1241" t="n">
-        <v>3533574.986307133</v>
-      </c>
-      <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" s="1" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B1242" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C1242" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="D1242" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="E1242" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F1242" t="n">
-        <v>12867.3657</v>
-      </c>
-      <c r="G1242" t="n">
-        <v>3546442.352007133</v>
-      </c>
-      <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" s="1" t="n">
-        <v>1241</v>
-      </c>
-      <c r="B1243" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C1243" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D1243" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E1243" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F1243" t="n">
-        <v>17243.7091</v>
-      </c>
-      <c r="G1243" t="n">
-        <v>3529198.642907133</v>
-      </c>
-      <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" s="1" t="n">
-        <v>1242</v>
-      </c>
-      <c r="B1244" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C1244" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="D1244" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E1244" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="F1244" t="n">
-        <v>17340.9288</v>
-      </c>
-      <c r="G1244" t="n">
-        <v>3511857.714107133</v>
-      </c>
-      <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" s="1" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B1245" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="C1245" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D1245" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E1245" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="F1245" t="n">
-        <v>107561.5745</v>
-      </c>
-      <c r="G1245" t="n">
-        <v>3619419.288607133</v>
-      </c>
-      <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" s="1" t="n">
-        <v>1244</v>
-      </c>
-      <c r="B1246" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C1246" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D1246" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E1246" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="F1246" t="n">
-        <v>244047.758</v>
-      </c>
-      <c r="G1246" t="n">
-        <v>3375371.530607133</v>
-      </c>
-      <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" s="1" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B1247" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C1247" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="D1247" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="E1247" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F1247" t="n">
-        <v>208809.1064</v>
-      </c>
-      <c r="G1247" t="n">
-        <v>3166562.424207133</v>
-      </c>
-      <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" s="1" t="n">
-        <v>1246</v>
-      </c>
-      <c r="B1248" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="C1248" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="D1248" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="E1248" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F1248" t="n">
-        <v>207290.8516</v>
-      </c>
-      <c r="G1248" t="n">
-        <v>3166562.424207133</v>
-      </c>
-      <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" s="1" t="n">
-        <v>1247</v>
-      </c>
-      <c r="B1249" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="C1249" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="D1249" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="E1249" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="F1249" t="n">
-        <v>68457.82090000001</v>
-      </c>
-      <c r="G1249" t="n">
-        <v>3098104.603307133</v>
-      </c>
-      <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -41706,7 +41652,9 @@
       <c r="I1250" t="n">
         <v>11.01</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41745,7 +41693,9 @@
       <c r="I1251" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41784,7 +41734,9 @@
       <c r="I1252" t="n">
         <v>11.02</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41823,7 +41775,9 @@
       <c r="I1253" t="n">
         <v>11.02</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41862,7 +41816,9 @@
       <c r="I1254" t="n">
         <v>11.02</v>
       </c>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41901,7 +41857,9 @@
       <c r="I1255" t="n">
         <v>11.05</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41940,7 +41898,9 @@
       <c r="I1256" t="n">
         <v>11.05</v>
       </c>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41979,7 +41939,9 @@
       <c r="I1257" t="n">
         <v>11.06</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42018,7 +41980,9 @@
       <c r="I1258" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42057,7 +42021,9 @@
       <c r="I1259" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42096,7 +42062,9 @@
       <c r="I1260" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42135,7 +42103,9 @@
       <c r="I1261" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42174,7 +42144,9 @@
       <c r="I1262" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42213,7 +42185,9 @@
       <c r="I1263" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42252,7 +42226,9 @@
       <c r="I1264" t="n">
         <v>11.08</v>
       </c>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42291,7 +42267,9 @@
       <c r="I1265" t="n">
         <v>11.1</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42330,7 +42308,9 @@
       <c r="I1266" t="n">
         <v>11.13</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42369,7 +42349,9 @@
       <c r="I1267" t="n">
         <v>11.16</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42408,7 +42390,9 @@
       <c r="I1268" t="n">
         <v>11.16</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42442,12 +42426,12 @@
         <v>3528106.473007133</v>
       </c>
       <c r="H1269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="J1269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42481,12 +42465,12 @@
         <v>3414106.021707133</v>
       </c>
       <c r="H1270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J1270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42523,7 +42507,9 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42557,12 +42543,12 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="J1272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42599,7 +42585,9 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42633,12 +42621,12 @@
         <v>3399391.547707133</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J1274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42672,12 +42660,12 @@
         <v>3442961.448907133</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J1275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42711,12 +42699,12 @@
         <v>3418605.915307133</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J1276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42750,12 +42738,12 @@
         <v>3393284.438507133</v>
       </c>
       <c r="H1277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J1277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42789,12 +42777,12 @@
         <v>3409563.351407133</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="J1278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42828,12 +42816,12 @@
         <v>3694453.172307133</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="J1279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42870,7 +42858,9 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42907,7 +42897,9 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42944,7 +42936,9 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42981,7 +42975,9 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43018,7 +43014,9 @@
         <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43055,7 +43053,9 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43092,7 +43092,9 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43129,7 +43131,9 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43166,7 +43170,9 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43203,7 +43209,9 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43240,7 +43248,9 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43277,7 +43287,9 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43314,7 +43326,9 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43351,7 +43365,9 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43388,7 +43404,9 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43425,7 +43443,9 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43462,7 +43482,9 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43499,7 +43521,9 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43536,7 +43560,9 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43573,7 +43599,9 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>11.03</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
